--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\PhanMem\KTPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMCOU\2020-2021\202\KTPM\QuanLyThuVien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D160AB-EDFD-413E-92E7-0FC15F986AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954ED72F-4F32-47C7-9BC4-29D947863768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1065" windowWidth="20835" windowHeight="12255" xr2:uid="{149D111D-D7F8-4066-AE5B-4C5CE4ACE309}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{149D111D-D7F8-4066-AE5B-4C5CE4ACE309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="270">
   <si>
     <t>ID</t>
   </si>
@@ -1181,6 +1189,19 @@
   </si>
   <si>
     <t>Tên chỉ chứa kí tự số ko hợp lệ. Chưa xử lí được</t>
+  </si>
+  <si>
+    <t>1. Nhập vào text field "Mã sách" khác số nguyên dương
+2. Nhập đầy đủ và đúng thông tin vào các text field còn lại
+3. Click button Thêm</t>
+  </si>
+  <si>
+    <t>1. Nhập vào text field "Số lượng" khác số nguyên dương
+2. Nhập đầy đủ và đúng thông tin vào các text field còn lại
+3. Click button Thêm</t>
+  </si>
+  <si>
+    <t>Thông báo "Mã sách không hợp lệ"</t>
   </si>
 </sst>
 </file>
@@ -1498,6 +1519,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,26 +1570,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2169,51 +2190,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90001968-9C6B-4622-AD1C-15CC2EAF82AF}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C197" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="11" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="18.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="19.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2"/>
+    <col min="8" max="8" width="18.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -2222,12 +2243,12 @@
         <v>186</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -2236,10 +2257,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>164</v>
       </c>
@@ -2248,24 +2269,24 @@
         <v>191</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2286,21 +2307,21 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:7" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2315,11 +2336,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2332,11 +2353,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>3</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2348,11 +2369,11 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>4</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,11 +2385,11 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2380,11 +2401,11 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>6</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,11 +2417,11 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>7</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,11 +2433,11 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>8</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2428,11 +2449,11 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>9</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2444,11 +2465,11 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>10</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -2460,11 +2481,11 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>11</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2476,11 +2497,11 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>12</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
@@ -2492,11 +2513,11 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>13</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="1" t="s">
         <v>188</v>
       </c>
@@ -2508,11 +2529,11 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>14</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="1" t="s">
         <v>189</v>
       </c>
@@ -2524,11 +2545,11 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>15</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="1" t="s">
         <v>190</v>
       </c>
@@ -2540,11 +2561,11 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>16</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="1" t="s">
         <v>191</v>
       </c>
@@ -2556,7 +2577,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>17</v>
       </c>
@@ -2574,17 +2595,17 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" spans="1:6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>18</v>
       </c>
@@ -2602,11 +2623,11 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>19</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2620,11 +2641,11 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>20</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2636,11 +2657,11 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>21</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2652,11 +2673,11 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>22</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2668,11 +2689,11 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>23</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="1" t="s">
         <v>42</v>
       </c>
@@ -2684,11 +2705,11 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>24</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
@@ -2700,11 +2721,11 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>25</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2718,11 +2739,11 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>26</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2734,11 +2755,11 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>27</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="1" t="s">
         <v>83</v>
       </c>
@@ -2750,11 +2771,11 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>28</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
@@ -2766,11 +2787,11 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>29</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="1" t="s">
         <v>85</v>
       </c>
@@ -2782,11 +2803,11 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>30</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2798,11 +2819,11 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>31</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2814,11 +2835,11 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>32</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2830,11 +2851,11 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <v>33</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
@@ -2846,11 +2867,11 @@
       </c>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>34</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="1" t="s">
         <v>90</v>
       </c>
@@ -2862,11 +2883,11 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
         <v>35</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
@@ -2878,11 +2899,11 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>36</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
@@ -2894,11 +2915,11 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="22">
         <v>37</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
@@ -2910,11 +2931,11 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>38</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2926,11 +2947,11 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="22">
         <v>39</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
@@ -2942,11 +2963,11 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>40</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,11 +2979,11 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="22">
         <v>41</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2976,11 +2997,11 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>42</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="1" t="s">
         <v>80</v>
       </c>
@@ -2992,11 +3013,11 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="22">
         <v>43</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="27" t="s">
         <v>234</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3010,11 +3031,11 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>44</v>
       </c>
-      <c r="B57" s="40"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="1" t="s">
         <v>237</v>
       </c>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
         <v>45</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="1" t="s">
         <v>245</v>
       </c>
@@ -3042,11 +3063,11 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>46</v>
       </c>
-      <c r="B59" s="40"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="1" t="s">
         <v>238</v>
       </c>
@@ -3058,11 +3079,11 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
         <v>47</v>
       </c>
-      <c r="B60" s="40"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="1" t="s">
         <v>244</v>
       </c>
@@ -3074,11 +3095,11 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>48</v>
       </c>
-      <c r="B61" s="40"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="1" t="s">
         <v>242</v>
       </c>
@@ -3090,11 +3111,11 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
         <v>49</v>
       </c>
-      <c r="B62" s="40"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="1" t="s">
         <v>239</v>
       </c>
@@ -3106,11 +3127,11 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>50</v>
       </c>
-      <c r="B63" s="40"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="1" t="s">
         <v>246</v>
       </c>
@@ -3122,11 +3143,11 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
         <v>51</v>
       </c>
-      <c r="B64" s="40"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="1" t="s">
         <v>240</v>
       </c>
@@ -3138,11 +3159,11 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>52</v>
       </c>
-      <c r="B65" s="40"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="1" t="s">
         <v>241</v>
       </c>
@@ -3154,11 +3175,11 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
         <v>53</v>
       </c>
-      <c r="B66" s="40"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="1" t="s">
         <v>253</v>
       </c>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>54</v>
       </c>
-      <c r="B67" s="40"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="1" t="s">
         <v>254</v>
       </c>
@@ -3186,11 +3207,11 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <v>55</v>
       </c>
-      <c r="B68" s="40"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="1" t="s">
         <v>255</v>
       </c>
@@ -3202,11 +3223,11 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>56</v>
       </c>
-      <c r="B69" s="40"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="1" t="s">
         <v>256</v>
       </c>
@@ -3218,11 +3239,11 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="22">
         <v>57</v>
       </c>
-      <c r="B70" s="40"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="1" t="s">
         <v>257</v>
       </c>
@@ -3234,11 +3255,11 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>58</v>
       </c>
-      <c r="B71" s="40"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="1" t="s">
         <v>258</v>
       </c>
@@ -3250,11 +3271,11 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="22">
         <v>59</v>
       </c>
-      <c r="B72" s="40"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="1" t="s">
         <v>259</v>
       </c>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>60</v>
       </c>
-      <c r="B73" s="40"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="1" t="s">
         <v>260</v>
       </c>
@@ -3282,11 +3303,11 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>61</v>
       </c>
-      <c r="B74" s="40"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="1" t="s">
         <v>261</v>
       </c>
@@ -3298,11 +3319,11 @@
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>62</v>
       </c>
-      <c r="B75" s="40"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="1" t="s">
         <v>262</v>
       </c>
@@ -3314,11 +3335,11 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="22">
         <v>63</v>
       </c>
-      <c r="B76" s="41"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="1" t="s">
         <v>263</v>
       </c>
@@ -3330,11 +3351,11 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>64</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="27" t="s">
         <v>236</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3348,11 +3369,11 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="22">
         <v>65</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="1" t="s">
         <v>250</v>
       </c>
@@ -3364,11 +3385,11 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>66</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="1" t="s">
         <v>247</v>
       </c>
@@ -3380,11 +3401,11 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="22">
         <v>67</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="1" t="s">
         <v>249</v>
       </c>
@@ -3396,11 +3417,11 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>68</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="1" t="s">
         <v>248</v>
       </c>
@@ -3412,11 +3433,11 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="22">
         <v>69</v>
       </c>
-      <c r="B82" s="41"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="1" t="s">
         <v>264</v>
       </c>
@@ -3428,11 +3449,11 @@
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>70</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B83" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3446,11 +3467,11 @@
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="22">
         <v>71</v>
       </c>
-      <c r="B84" s="41"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="1" t="s">
         <v>186</v>
       </c>
@@ -3462,7 +3483,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>72</v>
       </c>
@@ -3480,7 +3501,7 @@
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
         <v>73</v>
       </c>
@@ -3498,11 +3519,11 @@
       </c>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>74</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C87" s="16" t="s">
@@ -3516,11 +3537,11 @@
       </c>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="22">
         <v>75</v>
       </c>
-      <c r="B88" s="44"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="16" t="s">
         <v>176</v>
       </c>
@@ -3532,7 +3553,7 @@
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>76</v>
       </c>
@@ -3550,11 +3571,11 @@
       </c>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="22">
         <v>77</v>
       </c>
-      <c r="B90" s="39" t="s">
+      <c r="B90" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3568,11 +3589,11 @@
       </c>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>78</v>
       </c>
-      <c r="B91" s="41"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="16" t="s">
         <v>178</v>
       </c>
@@ -3584,17 +3605,17 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="29"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="35"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>79</v>
       </c>
@@ -3612,11 +3633,11 @@
       </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>80</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3630,11 +3651,11 @@
       </c>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
         <v>81</v>
       </c>
-      <c r="B95" s="40"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="1" t="s">
         <v>36</v>
       </c>
@@ -3646,11 +3667,11 @@
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>82</v>
       </c>
-      <c r="B96" s="40"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="1" t="s">
         <v>63</v>
       </c>
@@ -3662,11 +3683,11 @@
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
         <v>83</v>
       </c>
-      <c r="B97" s="40"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="1" t="s">
         <v>64</v>
       </c>
@@ -3678,11 +3699,11 @@
       </c>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>84</v>
       </c>
-      <c r="B98" s="40"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,11 +3715,11 @@
       </c>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="22">
         <v>85</v>
       </c>
-      <c r="B99" s="40"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="1" t="s">
         <v>66</v>
       </c>
@@ -3710,11 +3731,11 @@
       </c>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>86</v>
       </c>
-      <c r="B100" s="40"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="1" t="s">
         <v>67</v>
       </c>
@@ -3726,11 +3747,11 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="22">
         <v>87</v>
       </c>
-      <c r="B101" s="41"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="1" t="s">
         <v>68</v>
       </c>
@@ -3742,11 +3763,11 @@
       </c>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>88</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3760,11 +3781,11 @@
       </c>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="22">
         <v>89</v>
       </c>
-      <c r="B103" s="38"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="1" t="s">
         <v>72</v>
       </c>
@@ -3776,11 +3797,11 @@
       </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>90</v>
       </c>
-      <c r="B104" s="38"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="1" t="s">
         <v>73</v>
       </c>
@@ -3792,11 +3813,11 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="22">
         <v>91</v>
       </c>
-      <c r="B105" s="38"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="1" t="s">
         <v>74</v>
       </c>
@@ -3808,11 +3829,11 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>92</v>
       </c>
-      <c r="B106" s="38"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="1" t="s">
         <v>95</v>
       </c>
@@ -3824,11 +3845,11 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="22">
         <v>93</v>
       </c>
-      <c r="B107" s="38"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="1" t="s">
         <v>96</v>
       </c>
@@ -3840,11 +3861,11 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>94</v>
       </c>
-      <c r="B108" s="38"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="1" t="s">
         <v>97</v>
       </c>
@@ -3856,11 +3877,11 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="22">
         <v>95</v>
       </c>
-      <c r="B109" s="38"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="1" t="s">
         <v>98</v>
       </c>
@@ -3872,11 +3893,11 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>96</v>
       </c>
-      <c r="B110" s="38"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="1" t="s">
         <v>99</v>
       </c>
@@ -3888,11 +3909,11 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="22">
         <v>97</v>
       </c>
-      <c r="B111" s="38"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="1" t="s">
         <v>100</v>
       </c>
@@ -3904,11 +3925,11 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>98</v>
       </c>
-      <c r="B112" s="38"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="1" t="s">
         <v>101</v>
       </c>
@@ -3920,11 +3941,11 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="22">
         <v>99</v>
       </c>
-      <c r="B113" s="38"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="1" t="s">
         <v>102</v>
       </c>
@@ -3936,11 +3957,11 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>100</v>
       </c>
-      <c r="B114" s="38"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="1" t="s">
         <v>103</v>
       </c>
@@ -3952,11 +3973,11 @@
       </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="22">
         <v>101</v>
       </c>
-      <c r="B115" s="38"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="1" t="s">
         <v>104</v>
       </c>
@@ -3968,11 +3989,11 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>102</v>
       </c>
-      <c r="B116" s="38"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="1" t="s">
         <v>105</v>
       </c>
@@ -3984,11 +4005,11 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="22">
         <v>103</v>
       </c>
-      <c r="B117" s="38"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="1" t="s">
         <v>106</v>
       </c>
@@ -4000,11 +4021,11 @@
       </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>104</v>
       </c>
-      <c r="B118" s="38"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="1" t="s">
         <v>107</v>
       </c>
@@ -4016,11 +4037,11 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="22">
         <v>105</v>
       </c>
-      <c r="B119" s="38"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="1" t="s">
         <v>108</v>
       </c>
@@ -4032,11 +4053,11 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>106</v>
       </c>
-      <c r="B120" s="38"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="1" t="s">
         <v>109</v>
       </c>
@@ -4048,11 +4069,11 @@
       </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
         <v>107</v>
       </c>
-      <c r="B121" s="38"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="1" t="s">
         <v>110</v>
       </c>
@@ -4064,11 +4085,11 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>108</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="31" t="s">
         <v>111</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -4082,11 +4103,11 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="22">
         <v>109</v>
       </c>
-      <c r="B123" s="38"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="1" t="s">
         <v>113</v>
       </c>
@@ -4098,11 +4119,11 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>110</v>
       </c>
-      <c r="B124" s="38"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="1" t="s">
         <v>83</v>
       </c>
@@ -4114,11 +4135,11 @@
       </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="22">
         <v>111</v>
       </c>
-      <c r="B125" s="38"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="1" t="s">
         <v>82</v>
       </c>
@@ -4130,11 +4151,11 @@
       </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>112</v>
       </c>
-      <c r="B126" s="38"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="1" t="s">
         <v>114</v>
       </c>
@@ -4148,11 +4169,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="22">
         <v>113</v>
       </c>
-      <c r="B127" s="38"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="1" t="s">
         <v>115</v>
       </c>
@@ -4166,11 +4187,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>114</v>
       </c>
-      <c r="B128" s="38"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="1" t="s">
         <v>116</v>
       </c>
@@ -4182,11 +4203,11 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="22">
         <v>115</v>
       </c>
-      <c r="B129" s="38"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="1" t="s">
         <v>117</v>
       </c>
@@ -4198,11 +4219,11 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>116</v>
       </c>
-      <c r="B130" s="38"/>
+      <c r="B130" s="31"/>
       <c r="C130" s="1" t="s">
         <v>118</v>
       </c>
@@ -4214,11 +4235,11 @@
       </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="22">
         <v>117</v>
       </c>
-      <c r="B131" s="38"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="1" t="s">
         <v>119</v>
       </c>
@@ -4230,11 +4251,11 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>118</v>
       </c>
-      <c r="B132" s="38"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="1" t="s">
         <v>120</v>
       </c>
@@ -4246,11 +4267,11 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="22">
         <v>119</v>
       </c>
-      <c r="B133" s="38"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="1" t="s">
         <v>77</v>
       </c>
@@ -4262,11 +4283,11 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>120</v>
       </c>
-      <c r="B134" s="38"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="1" t="s">
         <v>121</v>
       </c>
@@ -4278,11 +4299,11 @@
       </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="22">
         <v>121</v>
       </c>
-      <c r="B135" s="38"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="1" t="s">
         <v>122</v>
       </c>
@@ -4294,11 +4315,11 @@
       </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>122</v>
       </c>
-      <c r="B136" s="38"/>
+      <c r="B136" s="31"/>
       <c r="C136" s="1" t="s">
         <v>123</v>
       </c>
@@ -4310,11 +4331,11 @@
       </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="22">
         <v>123</v>
       </c>
-      <c r="B137" s="38"/>
+      <c r="B137" s="31"/>
       <c r="C137" s="1" t="s">
         <v>124</v>
       </c>
@@ -4326,11 +4347,11 @@
       </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>124</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="31" t="s">
         <v>145</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -4344,11 +4365,11 @@
       </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="22">
         <v>125</v>
       </c>
-      <c r="B139" s="38"/>
+      <c r="B139" s="31"/>
       <c r="C139" s="1" t="s">
         <v>126</v>
       </c>
@@ -4360,11 +4381,11 @@
       </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>126</v>
       </c>
-      <c r="B140" s="38"/>
+      <c r="B140" s="31"/>
       <c r="C140" s="1" t="s">
         <v>127</v>
       </c>
@@ -4376,11 +4397,11 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="22">
         <v>127</v>
       </c>
-      <c r="B141" s="38"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="1" t="s">
         <v>128</v>
       </c>
@@ -4392,11 +4413,11 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>128</v>
       </c>
-      <c r="B142" s="38"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="1" t="s">
         <v>129</v>
       </c>
@@ -4408,11 +4429,11 @@
       </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="22">
         <v>129</v>
       </c>
-      <c r="B143" s="38"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="1" t="s">
         <v>130</v>
       </c>
@@ -4424,11 +4445,11 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>130</v>
       </c>
-      <c r="B144" s="38"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="1" t="s">
         <v>131</v>
       </c>
@@ -4440,11 +4461,11 @@
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="22">
         <v>131</v>
       </c>
-      <c r="B145" s="38"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="1" t="s">
         <v>132</v>
       </c>
@@ -4456,11 +4477,11 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>132</v>
       </c>
-      <c r="B146" s="38"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="1" t="s">
         <v>133</v>
       </c>
@@ -4472,11 +4493,11 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A147" s="22">
         <v>133</v>
       </c>
-      <c r="B147" s="38"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="1" t="s">
         <v>134</v>
       </c>
@@ -4488,11 +4509,11 @@
       </c>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>134</v>
       </c>
-      <c r="B148" s="38"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="1" t="s">
         <v>135</v>
       </c>
@@ -4504,11 +4525,11 @@
       </c>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="22">
         <v>135</v>
       </c>
-      <c r="B149" s="38"/>
+      <c r="B149" s="31"/>
       <c r="C149" s="1" t="s">
         <v>136</v>
       </c>
@@ -4520,11 +4541,11 @@
       </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>136</v>
       </c>
-      <c r="B150" s="38"/>
+      <c r="B150" s="31"/>
       <c r="C150" s="1" t="s">
         <v>137</v>
       </c>
@@ -4536,11 +4557,11 @@
       </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="22">
         <v>137</v>
       </c>
-      <c r="B151" s="38"/>
+      <c r="B151" s="31"/>
       <c r="C151" s="1" t="s">
         <v>138</v>
       </c>
@@ -4552,11 +4573,11 @@
       </c>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>138</v>
       </c>
-      <c r="B152" s="38"/>
+      <c r="B152" s="31"/>
       <c r="C152" s="1" t="s">
         <v>139</v>
       </c>
@@ -4568,11 +4589,11 @@
       </c>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="22">
         <v>139</v>
       </c>
-      <c r="B153" s="38"/>
+      <c r="B153" s="31"/>
       <c r="C153" s="1" t="s">
         <v>140</v>
       </c>
@@ -4584,11 +4605,11 @@
       </c>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>140</v>
       </c>
-      <c r="B154" s="38"/>
+      <c r="B154" s="31"/>
       <c r="C154" s="1" t="s">
         <v>141</v>
       </c>
@@ -4600,11 +4621,11 @@
       </c>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="22">
         <v>141</v>
       </c>
-      <c r="B155" s="38"/>
+      <c r="B155" s="31"/>
       <c r="C155" s="1" t="s">
         <v>142</v>
       </c>
@@ -4616,11 +4637,11 @@
       </c>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>142</v>
       </c>
-      <c r="B156" s="38"/>
+      <c r="B156" s="31"/>
       <c r="C156" s="1" t="s">
         <v>143</v>
       </c>
@@ -4632,11 +4653,11 @@
       </c>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="22">
         <v>143</v>
       </c>
-      <c r="B157" s="38"/>
+      <c r="B157" s="31"/>
       <c r="C157" s="1" t="s">
         <v>144</v>
       </c>
@@ -4648,11 +4669,11 @@
       </c>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>144</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="31" t="s">
         <v>163</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -4666,11 +4687,11 @@
       </c>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="22">
         <v>145</v>
       </c>
-      <c r="B159" s="38"/>
+      <c r="B159" s="31"/>
       <c r="C159" s="1" t="s">
         <v>147</v>
       </c>
@@ -4682,11 +4703,11 @@
       </c>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>146</v>
       </c>
-      <c r="B160" s="38"/>
+      <c r="B160" s="31"/>
       <c r="C160" s="1" t="s">
         <v>148</v>
       </c>
@@ -4698,11 +4719,11 @@
       </c>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="22">
         <v>147</v>
       </c>
-      <c r="B161" s="38"/>
+      <c r="B161" s="31"/>
       <c r="C161" s="1" t="s">
         <v>149</v>
       </c>
@@ -4714,11 +4735,11 @@
       </c>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>148</v>
       </c>
-      <c r="B162" s="38"/>
+      <c r="B162" s="31"/>
       <c r="C162" s="1" t="s">
         <v>150</v>
       </c>
@@ -4730,11 +4751,11 @@
       </c>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="22">
         <v>149</v>
       </c>
-      <c r="B163" s="38"/>
+      <c r="B163" s="31"/>
       <c r="C163" s="1" t="s">
         <v>151</v>
       </c>
@@ -4746,11 +4767,11 @@
       </c>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>150</v>
       </c>
-      <c r="B164" s="38"/>
+      <c r="B164" s="31"/>
       <c r="C164" s="1" t="s">
         <v>152</v>
       </c>
@@ -4762,11 +4783,11 @@
       </c>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="22">
         <v>151</v>
       </c>
-      <c r="B165" s="38"/>
+      <c r="B165" s="31"/>
       <c r="C165" s="1" t="s">
         <v>153</v>
       </c>
@@ -4778,11 +4799,11 @@
       </c>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>152</v>
       </c>
-      <c r="B166" s="38"/>
+      <c r="B166" s="31"/>
       <c r="C166" s="1" t="s">
         <v>154</v>
       </c>
@@ -4794,11 +4815,11 @@
       </c>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="22">
         <v>153</v>
       </c>
-      <c r="B167" s="38"/>
+      <c r="B167" s="31"/>
       <c r="C167" s="1" t="s">
         <v>155</v>
       </c>
@@ -4810,11 +4831,11 @@
       </c>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>154</v>
       </c>
-      <c r="B168" s="38"/>
+      <c r="B168" s="31"/>
       <c r="C168" s="1" t="s">
         <v>156</v>
       </c>
@@ -4826,11 +4847,11 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="22">
         <v>155</v>
       </c>
-      <c r="B169" s="38"/>
+      <c r="B169" s="31"/>
       <c r="C169" s="1" t="s">
         <v>157</v>
       </c>
@@ -4842,11 +4863,11 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>156</v>
       </c>
-      <c r="B170" s="38"/>
+      <c r="B170" s="31"/>
       <c r="C170" s="1" t="s">
         <v>158</v>
       </c>
@@ -4858,11 +4879,11 @@
       </c>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="22">
         <v>157</v>
       </c>
-      <c r="B171" s="38"/>
+      <c r="B171" s="31"/>
       <c r="C171" s="1" t="s">
         <v>159</v>
       </c>
@@ -4874,11 +4895,11 @@
       </c>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>158</v>
       </c>
-      <c r="B172" s="38"/>
+      <c r="B172" s="31"/>
       <c r="C172" s="1" t="s">
         <v>160</v>
       </c>
@@ -4890,11 +4911,11 @@
       </c>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="22">
         <v>159</v>
       </c>
-      <c r="B173" s="38"/>
+      <c r="B173" s="31"/>
       <c r="C173" s="1" t="s">
         <v>161</v>
       </c>
@@ -4906,11 +4927,11 @@
       </c>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>160</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -4924,11 +4945,11 @@
       </c>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="22">
         <v>161</v>
       </c>
-      <c r="B175" s="38"/>
+      <c r="B175" s="31"/>
       <c r="C175" s="1" t="s">
         <v>171</v>
       </c>
@@ -4940,11 +4961,11 @@
       </c>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>162</v>
       </c>
-      <c r="B176" s="39" t="s">
+      <c r="B176" s="27" t="s">
         <v>173</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -4958,11 +4979,11 @@
       </c>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="22">
         <v>163</v>
       </c>
-      <c r="B177" s="41"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="1" t="s">
         <v>174</v>
       </c>
@@ -4974,11 +4995,11 @@
       </c>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>164</v>
       </c>
-      <c r="B178" s="39" t="s">
+      <c r="B178" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -4992,11 +5013,11 @@
       </c>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="22">
         <v>165</v>
       </c>
-      <c r="B179" s="41"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="1" t="s">
         <v>176</v>
       </c>
@@ -5008,11 +5029,11 @@
       </c>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>166</v>
       </c>
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -5026,11 +5047,11 @@
       </c>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="22">
         <v>167</v>
       </c>
-      <c r="B181" s="41"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="1" t="s">
         <v>178</v>
       </c>
@@ -5042,7 +5063,7 @@
       </c>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>168</v>
       </c>
@@ -5060,7 +5081,7 @@
       </c>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="22">
         <v>169</v>
       </c>
@@ -5078,17 +5099,17 @@
       </c>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="27" t="s">
+    <row r="184" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
-      <c r="E184" s="28"/>
-      <c r="F184" s="29"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="35"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="20">
         <v>170</v>
       </c>
@@ -5106,7 +5127,7 @@
       </c>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="20">
         <v>171</v>
       </c>
@@ -5124,7 +5145,7 @@
       </c>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="22">
         <v>172</v>
       </c>
@@ -5142,11 +5163,11 @@
       </c>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A188" s="22">
         <v>173</v>
       </c>
-      <c r="B188" s="39" t="s">
+      <c r="B188" s="27" t="s">
         <v>197</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -5160,11 +5181,11 @@
       </c>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="22">
         <v>174</v>
       </c>
-      <c r="B189" s="41"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="1" t="s">
         <v>212</v>
       </c>
@@ -5176,11 +5197,11 @@
       </c>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="22">
         <v>175</v>
       </c>
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="27" t="s">
         <v>198</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -5194,11 +5215,11 @@
       </c>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="22">
         <v>176</v>
       </c>
-      <c r="B191" s="41"/>
+      <c r="B191" s="29"/>
       <c r="C191" s="1" t="s">
         <v>202</v>
       </c>
@@ -5210,11 +5231,11 @@
       </c>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A192" s="22">
         <v>177</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="B192" s="27" t="s">
         <v>205</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -5228,11 +5249,11 @@
       </c>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="22">
         <v>178</v>
       </c>
-      <c r="B193" s="41"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="1" t="s">
         <v>178</v>
       </c>
@@ -5244,11 +5265,11 @@
       </c>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="22">
         <v>179</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" s="31" t="s">
         <v>206</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -5262,11 +5283,11 @@
       </c>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="22">
         <v>180</v>
       </c>
-      <c r="B195" s="38"/>
+      <c r="B195" s="31"/>
       <c r="C195" s="1" t="s">
         <v>208</v>
       </c>
@@ -5278,11 +5299,11 @@
       </c>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="22">
         <v>181</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="31" t="s">
         <v>210</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -5296,11 +5317,11 @@
       </c>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="22">
         <v>182</v>
       </c>
-      <c r="B197" s="38"/>
+      <c r="B197" s="31"/>
       <c r="C197" s="1" t="s">
         <v>215</v>
       </c>
@@ -5312,11 +5333,11 @@
       </c>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="22">
         <v>183</v>
       </c>
-      <c r="B198" s="38"/>
+      <c r="B198" s="31"/>
       <c r="C198" s="1" t="s">
         <v>216</v>
       </c>
@@ -5328,27 +5349,27 @@
       </c>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="22">
         <v>184</v>
       </c>
-      <c r="B199" s="38"/>
+      <c r="B199" s="31"/>
       <c r="C199" s="1" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="22">
         <v>185</v>
       </c>
-      <c r="B200" s="38"/>
+      <c r="B200" s="31"/>
       <c r="C200" s="1" t="s">
         <v>217</v>
       </c>
@@ -5360,13 +5381,13 @@
       </c>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="22">
         <v>186</v>
       </c>
-      <c r="B201" s="38"/>
+      <c r="B201" s="31"/>
       <c r="C201" s="1" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>218</v>
@@ -5376,11 +5397,11 @@
       </c>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="22">
         <v>187</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" s="31" t="s">
         <v>224</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -5394,11 +5415,11 @@
       </c>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="22">
         <v>188</v>
       </c>
-      <c r="B203" s="38"/>
+      <c r="B203" s="31"/>
       <c r="C203" s="1" t="s">
         <v>226</v>
       </c>
@@ -5410,11 +5431,11 @@
       </c>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="22">
         <v>189</v>
       </c>
-      <c r="B204" s="38"/>
+      <c r="B204" s="31"/>
       <c r="C204" s="1" t="s">
         <v>227</v>
       </c>
@@ -5426,17 +5447,17 @@
       </c>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="42" t="s">
+    <row r="205" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A205" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="B205" s="42"/>
-      <c r="C205" s="42"/>
-      <c r="D205" s="42"/>
-      <c r="E205" s="42"/>
-      <c r="F205" s="42"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="20">
         <v>190</v>
       </c>
@@ -5454,7 +5475,7 @@
       </c>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="20">
         <v>191</v>
       </c>
@@ -5472,7 +5493,7 @@
       </c>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -5480,7 +5501,7 @@
       <c r="E208"/>
       <c r="F208"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -5488,7 +5509,7 @@
       <c r="E209"/>
       <c r="F209"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -5498,6 +5519,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B122:B137"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="B102:B121"/>
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B13:B28"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B83:B84"/>
     <mergeCell ref="B56:B76"/>
     <mergeCell ref="B77:B82"/>
     <mergeCell ref="A205:F205"/>
@@ -5514,23 +5552,6 @@
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="B138:B157"/>
     <mergeCell ref="B158:B173"/>
-    <mergeCell ref="B122:B137"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="B102:B121"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:B28"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B178:B179"/>
   </mergeCells>
   <conditionalFormatting sqref="E93:E121 E13:E29 E32:E91">
     <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
